--- a/Software/Measurements and calculations/Results initial ppk measurements.xlsx
+++ b/Software/Measurements and calculations/Results initial ppk measurements.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Documents/GitHub/Bachelor-Nordic_Semi/Software/Measurements and calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{97B5FFA9-F6BA-564E-A7BC-F3A0BBF1BEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -339,16 +339,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>12699</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19228</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -376,8 +376,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10934699" y="4089400"/>
-          <a:ext cx="10103029" cy="2222500"/>
+          <a:off x="12699" y="6798862"/>
+          <a:ext cx="10102388" cy="2155279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -686,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E96EFBD-8365-D64D-918F-E896413E2166}">
-  <dimension ref="A2:L20"/>
+  <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,10 +957,12 @@
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="B33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
